--- a/Bibsam_tidskriftslistor/scifree_data_spie.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_spie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>Open</t>
   </si>
@@ -172,13 +172,40 @@
   </si>
   <si>
     <t>CC-BY</t>
+  </si>
+  <si>
+    <t>Advanced Photonics Nexus</t>
+  </si>
+  <si>
+    <t>Journal of Optical Microsystems</t>
+  </si>
+  <si>
+    <t>Photonics Insights</t>
+  </si>
+  <si>
+    <t>https://www.spiedigitallibrary.org/journals/advanced-photonics-nexus</t>
+  </si>
+  <si>
+    <t>2791-1519</t>
+  </si>
+  <si>
+    <t>https://www.spiedigitallibrary.org/journals/journal-of-optical-microsystems</t>
+  </si>
+  <si>
+    <t>2708-5260</t>
+  </si>
+  <si>
+    <t>https://www.spiedigitallibrary.org/journals/photonics-insights</t>
+  </si>
+  <si>
+    <t>2791-1748</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +217,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,17 +247,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,6 +289,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G15"/>
+  <sortState ref="A2:G15">
+    <sortCondition ref="D1:D15"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,22 +573,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -536,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -556,41 +631,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -599,67 +671,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -668,21 +740,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
@@ -691,18 +763,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -711,18 +786,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -731,21 +806,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -754,21 +826,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>49</v>
@@ -777,8 +846,80 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>